--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Bmp7</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Bmp7</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H2">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I2">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N2">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O2">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P2">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q2">
-        <v>0.3660226581591112</v>
+        <v>0.2283739583666667</v>
       </c>
       <c r="R2">
-        <v>3.294203923432</v>
+        <v>2.0553656253</v>
       </c>
       <c r="S2">
-        <v>0.1112861174372245</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="T2">
-        <v>0.1112861174372245</v>
+        <v>0.1719944618809179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H3">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I3">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>79.438063</v>
       </c>
       <c r="O3">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P3">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q3">
-        <v>0.9119313103371112</v>
+        <v>0.6461845102477778</v>
       </c>
       <c r="R3">
-        <v>8.207381793034001</v>
+        <v>5.81566059223</v>
       </c>
       <c r="S3">
-        <v>0.2772650616966499</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="T3">
-        <v>0.2772650616966499</v>
+        <v>0.4866586274141184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H4">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I4">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N4">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O4">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P4">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q4">
-        <v>0.193787270202</v>
+        <v>0.1257456586888889</v>
       </c>
       <c r="R4">
-        <v>1.744085431818</v>
+        <v>1.1317109282</v>
       </c>
       <c r="S4">
-        <v>0.05891939318184011</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="T4">
-        <v>0.05891939318184011</v>
+        <v>0.09470237786627496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H5">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I5">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N5">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O5">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P5">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q5">
-        <v>0.27012387782</v>
+        <v>0.1946120280444444</v>
       </c>
       <c r="R5">
-        <v>2.43111490038</v>
+        <v>1.7515082524</v>
       </c>
       <c r="S5">
-        <v>0.08212889808752598</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="T5">
-        <v>0.08212889808752598</v>
+        <v>0.146567460136225</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H6">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I6">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N6">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O6">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P6">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q6">
-        <v>0.1831288360848889</v>
+        <v>0.1328821694888889</v>
       </c>
       <c r="R6">
-        <v>1.648159524764</v>
+        <v>1.1959395254</v>
       </c>
       <c r="S6">
-        <v>0.05567878573742847</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="T6">
-        <v>0.05567878573742848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.07321</v>
-      </c>
-      <c r="I7">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J7">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>10.62804133333333</v>
-      </c>
-      <c r="N7">
-        <v>31.884124</v>
-      </c>
-      <c r="O7">
-        <v>0.1901422379349035</v>
-      </c>
-      <c r="P7">
-        <v>0.1901422379349035</v>
-      </c>
-      <c r="Q7">
-        <v>0.2593596353377778</v>
-      </c>
-      <c r="R7">
-        <v>2.33423671804</v>
-      </c>
-      <c r="S7">
-        <v>0.07885612049767904</v>
-      </c>
-      <c r="T7">
-        <v>0.07885612049767904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.07321</v>
-      </c>
-      <c r="I8">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J8">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>26.47935433333333</v>
-      </c>
-      <c r="N8">
-        <v>79.438063</v>
-      </c>
-      <c r="O8">
-        <v>0.4737320390559845</v>
-      </c>
-      <c r="P8">
-        <v>0.4737320390559847</v>
-      </c>
-      <c r="Q8">
-        <v>0.6461845102477778</v>
-      </c>
-      <c r="R8">
-        <v>5.81566059223</v>
-      </c>
-      <c r="S8">
-        <v>0.1964669773593347</v>
-      </c>
-      <c r="T8">
-        <v>0.1964669773593347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.07321</v>
-      </c>
-      <c r="I9">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J9">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.626917</v>
-      </c>
-      <c r="N9">
-        <v>16.880751</v>
-      </c>
-      <c r="O9">
-        <v>0.1006690280454894</v>
-      </c>
-      <c r="P9">
-        <v>0.1006690280454894</v>
-      </c>
-      <c r="Q9">
-        <v>0.13731553119</v>
-      </c>
-      <c r="R9">
-        <v>1.23583978071</v>
-      </c>
-      <c r="S9">
-        <v>0.04174963486364926</v>
-      </c>
-      <c r="T9">
-        <v>0.04174963486364926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.07321</v>
-      </c>
-      <c r="I10">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J10">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.84347</v>
-      </c>
-      <c r="N10">
-        <v>23.53041</v>
-      </c>
-      <c r="O10">
-        <v>0.1403245332042314</v>
-      </c>
-      <c r="P10">
-        <v>0.1403245332042315</v>
-      </c>
-      <c r="Q10">
-        <v>0.1914068129</v>
-      </c>
-      <c r="R10">
-        <v>1.7226613161</v>
-      </c>
-      <c r="S10">
-        <v>0.05819563511670547</v>
-      </c>
-      <c r="T10">
-        <v>0.05819563511670547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.07321</v>
-      </c>
-      <c r="I11">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J11">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.317432666666666</v>
-      </c>
-      <c r="N11">
-        <v>15.952298</v>
-      </c>
-      <c r="O11">
-        <v>0.09513216175939113</v>
-      </c>
-      <c r="P11">
-        <v>0.09513216175939115</v>
-      </c>
-      <c r="Q11">
-        <v>0.1297630818422222</v>
-      </c>
-      <c r="R11">
-        <v>1.16786773658</v>
-      </c>
-      <c r="S11">
-        <v>0.03945337602196266</v>
-      </c>
-      <c r="T11">
-        <v>0.03945337602196267</v>
+        <v>0.1000770727024639</v>
       </c>
     </row>
   </sheetData>
